--- a/Second_Assignment/output1.xlsx
+++ b/Second_Assignment/output1.xlsx
@@ -5344,7 +5344,7 @@
         <v>49</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>49</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>1</v>
@@ -6544,7 +6544,7 @@
         <v>49</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>49</v>
       </c>
       <c r="T124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>49</v>
       </c>
       <c r="T135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
@@ -17184,7 +17184,7 @@
         <v>53</v>
       </c>
       <c r="T209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U209" t="n">
         <v>0</v>
@@ -18704,7 +18704,7 @@
         <v>49</v>
       </c>
       <c r="T228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U228" t="n">
         <v>0</v>
